--- a/知识点整理.xlsx
+++ b/知识点整理.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28560" windowHeight="12165"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$57</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
   <si>
     <t>类型</t>
   </si>
@@ -28,21 +28,28 @@
     <t>unity基础</t>
   </si>
   <si>
-    <t>canvas设置render mode为 overlay,会使UI渲染用在在最前面,导致特效看不到,修改特效渲染层级也没用;要能看到特效必然不能使用overlay模式;</t>
+    <t>canvas设置render mode为 overlay,会使UI渲染用在在最前面,导致特效看不到,修改特效渲染层级也没用;要能看到特效必然不能使用overlay模式;
+AB打包:压缩方式默认方式压缩成lzma格式(zip),资源占用较少,但解压较慢;lz4方式:资源相对大一点,但解压速度提升几倍;
+System.Enviroment.TickCount,上次系统启动经过的毫秒(计时器),是一个带符号的32位int;大约25天后数据变为负值,若使用记得处理负值</t>
   </si>
   <si>
     <t>游戏开发</t>
   </si>
   <si>
-    <t xml:space="preserve">程序员应该为美术师实现完整的美术资源合法性检查工具;
+    <t>程序员应该为美术师实现完整的美术资源合法性检查工具;
 CPU/游戏逻辑的性能优化往往能够取得更大的作用,GPU/Shader的性能优化应该放在最后进行;
-</t>
+挂机游戏(中型网游)项目人员配置:UI2个,模型1个,场景1个,特效1个,主美1个,策划4个,前端3个,后端2个,项目经理1个;
+ios的包一般比android包大一些;
+google未登录拉不到相关数据;</t>
   </si>
   <si>
     <t>美术</t>
   </si>
   <si>
-    <t>颜色灰度值:表示颜色的明暗,0为白色;1黑;并不是只有黑白颜色的意思;Unity中color.grayscale计算公式:3:6:1(r*0.299+g*0.687+b*0.114)
+    <t>颜色灰度值:表示颜色的明暗,0为白色;1黑;并不是只有黑白颜色的意思;
+unity使用的加权平均法
+加权平均法:该方法根据重要性及其它指标，将三个分量以不同的权值进行加权平均.由于人眼对绿色的敏感最高，对蓝色敏感最低，因此，按下式对RGB三分量进行加权平均能得到相对合理的灰度图像.
+公式为：GrayScale=0.299*R+0.578*G+0.114*B
 了解颜色饱和度,对比度和亮度;hsv和rgb的相关知识;</t>
   </si>
   <si>
@@ -58,17 +65,6 @@
   <si>
     <t xml:space="preserve">状态模式:一个对象的不同状态下有不同的行为,同时状态多且行为比较复杂时,将单个状态封装子类分离状态之间的耦合,便于管理;
 适配器模式:复用现存的数据/代码,但接口又与数据/接口环境不一致,这时需要一个中间环节的适配器进行连接;好处:不用修改现存数据和待使用对象(主要用于双方都不好修改时采用的模式);
-</t>
-  </si>
-  <si>
-    <t>挂机游戏(中型网游)项目人员配置:UI2个,模型1个,场景1个,特效1个,主美1个,策划4个,前端3个,后端2个,项目经理1个;</t>
-  </si>
-  <si>
-    <t>开发常识</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ios的包一般比android包大一些;
-google未登录拉不到相关数据;
 </t>
   </si>
   <si>
@@ -148,12 +144,6 @@
     <t>11.访问者模式:表示一个作用于某对象结构中的各元素的操作;他使你可以在不改变各元素的类的前提下定义作用于这些元素的新操作;
 优点:将数据结构和操作之间的耦合分离;操作可以的变化;
 缺点:该设计模式比较复杂,且数据结构必须是稳定的情况下才能应用;</t>
-  </si>
-  <si>
-    <t>unity bug</t>
-  </si>
-  <si>
-    <t>打包IL2CPP有个东西千万别用的是  System.Enviroment.TickCount,在有些手机上获取到的值有异常，居然还有负的</t>
   </si>
   <si>
     <t>c#基础</t>
@@ -461,18 +451,15 @@
 3.不能设置匿名类型对象的属性.编译器为匿名类型创建的属性只是只读的;
 如果编译器遇到另一个具有相同参数名,相同推断类型和相同顺序的匿名类型,则会直接使用这个类型创建新的实例;</t>
   </si>
-  <si>
-    <t>AB打包:压缩方式默认方式压缩成lzma格式(zip),资源占用较少,但解压较慢;lz4方式:资源相对大一点,但解压速度提升几倍;</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -492,6 +479,126 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -500,64 +607,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,74 +616,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -651,13 +638,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,13 +722,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,7 +746,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,37 +788,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,91 +812,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,6 +823,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -854,46 +850,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,17 +898,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,10 +931,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -956,133 +943,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,13 +1156,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1372235</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>589280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1193,7 +1180,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10382250" y="44783375"/>
+          <a:off x="10382250" y="43399075"/>
           <a:ext cx="6229985" cy="4548505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1493,12 +1480,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.875" defaultRowHeight="62" customHeight="1" outlineLevelCol="1"/>
@@ -1524,7 +1511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:2">
+    <row r="3" ht="108" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1532,7 +1519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:2">
+    <row r="4" ht="93" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1558,23 +1545,23 @@
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -1582,26 +1569,26 @@
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
@@ -1609,7 +1596,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
@@ -1617,15 +1604,15 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="84" customHeight="1" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
@@ -1633,15 +1620,15 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" ht="84" customHeight="1" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
@@ -1649,7 +1636,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
@@ -1657,15 +1644,15 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" ht="101" customHeight="1" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
@@ -1673,331 +1660,299 @@
         <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" ht="207" customHeight="1" spans="1:2">
+      <c r="A22" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="22" ht="101" customHeight="1" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:2">
+    <row r="23" ht="180" customHeight="1" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:2">
+    <row r="24" ht="99" customHeight="1" spans="1:2">
       <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="3" t="s">
+    </row>
+    <row r="25" customHeight="1" spans="1:2">
+      <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" ht="207" customHeight="1" spans="1:2">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" ht="180" customHeight="1" spans="1:2">
+    </row>
+    <row r="26" ht="266" customHeight="1" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" ht="99" customHeight="1" spans="1:2">
+    <row r="27" customHeight="1" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:2">
+    <row r="28" ht="112" customHeight="1" spans="1:2">
       <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="3" t="s">
+    </row>
+    <row r="29" customHeight="1" spans="1:2">
+      <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" ht="266" customHeight="1" spans="1:2">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="31" ht="112" customHeight="1" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
       <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" ht="117" customHeight="1" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" ht="93" customHeight="1" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" ht="117" customHeight="1" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" ht="93" customHeight="1" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" ht="74" customHeight="1" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" ht="250" customHeight="1" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" ht="74" customHeight="1" spans="1:2">
-      <c r="A44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="3" t="s">
+    <row r="46" ht="159" customHeight="1" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="3" t="s">
+    <row r="47" ht="64" customHeight="1" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:2">
-      <c r="A46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="3" t="s">
+    <row r="48" customHeight="1" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:2">
-      <c r="A47" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="3" t="s">
+    <row r="49" customHeight="1" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" ht="250" customHeight="1" spans="1:2">
-      <c r="A48" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="3" t="s">
+    <row r="50" ht="309" customHeight="1" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" ht="159" customHeight="1" spans="1:2">
-      <c r="A49" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="3" t="s">
+    <row r="51" ht="282" customHeight="1" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" ht="64" customHeight="1" spans="1:2">
-      <c r="A50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="3" t="s">
+    <row r="52" ht="83" customHeight="1" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:2">
-      <c r="A51" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="3" t="s">
+    <row r="53" customHeight="1" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:2">
-      <c r="A52" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="3" t="s">
+    <row r="54" ht="294" customHeight="1" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" ht="309" customHeight="1" spans="1:2">
-      <c r="A53" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="3" t="s">
+    <row r="55" ht="117" customHeight="1" spans="1:2">
+      <c r="A55" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="54" ht="282" customHeight="1" spans="1:2">
-      <c r="A54" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" ht="83" customHeight="1" spans="1:2">
-      <c r="A55" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55" s="3" t="s">
+    <row r="56" ht="304" customHeight="1" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:2">
-      <c r="A56" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="3" t="s">
+    <row r="57" ht="232" customHeight="1" spans="1:2">
+      <c r="A57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" ht="294" customHeight="1" spans="1:2">
-      <c r="A57" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" ht="117" customHeight="1" spans="1:2">
-      <c r="A58" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" ht="304" customHeight="1" spans="1:2">
-      <c r="A59" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" ht="232" customHeight="1" spans="1:2">
-      <c r="A60" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:2">
-      <c r="A61" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B58">
+  <autoFilter ref="A1:B57">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/知识点整理.xlsx
+++ b/知识点整理.xlsx
@@ -4,33 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="20805" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$53</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>类型</t>
   </si>
   <si>
     <t>知识点</t>
-  </si>
-  <si>
-    <t>unity基础</t>
-  </si>
-  <si>
-    <t>canvas设置render mode为 overlay,会使UI渲染用在在最前面,导致特效看不到,修改特效渲染层级也没用;要能看到特效必然不能使用overlay模式;
-AB打包:压缩方式默认方式压缩成lzma格式(zip),资源占用较少,但解压较慢;lz4方式:资源相对大一点,但解压速度提升几倍;
-System.Enviroment.TickCount,上次系统启动经过的毫秒(计时器),是一个带符号的32位int;大约25天后数据变为负值,若使用记得处理负值</t>
   </si>
   <si>
     <t>游戏开发</t>
@@ -72,20 +64,6 @@
   </si>
   <si>
     <t>日志记录相关,影响游戏逻辑的严重情况应该做好异常处理,尽量避免anr或者crash,同时这种应该留下错误日志记录;警告日志:UI表现或者影响逻辑但不严重的情况应该留下警告记录;普通日志:做编程时梳理作用,和流程检测,但在发布时应该屏蔽;</t>
-  </si>
-  <si>
-    <t>unity优化</t>
-  </si>
-  <si>
-    <t>研究游戏优化相关资料;内存(逻辑优化,资源优化);;GPU(DC,setpass,overdraw);CPU(逻辑)
-apk,ipa包体积优化:1.压缩资源;打AB包;2.贴图POT优化;3.打图集;4.无透明度的贴图png转jpg;
-优化的好处:1.包越小,用户才愿意下载(大多数手机存储大小都不够用);2.删除app时,基本都是从越大的应用开始删;</t>
-  </si>
-  <si>
-    <t>unity.status面板上显示有 1.7k Tris 以及 5.0k Verts 。这是因为空的场景自带默认的天空盒Windows—&gt;Lighting打开 Ligh下的 Scene 面板，把 Skybox 里的材质设为空。删掉它，</t>
-  </si>
-  <si>
-    <t>unity 贴图资源android压缩:etc1的压缩需要是POT(2的幂方),etc2的压缩需要是4的倍数;</t>
   </si>
   <si>
     <t>1.备忘录模式(memento):保存一些状态,保存游戏进度等;发起者--&gt;备忘录--&gt;管理者;发起者的一些状态保存到备忘录中,管理者窄接口管理备忘录;
@@ -457,9 +435,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -480,7 +458,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,6 +521,59 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,53 +587,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,69 +600,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -638,25 +616,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,151 +778,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,15 +801,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -850,15 +819,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -870,6 +830,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,34 +896,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,10 +909,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,133 +921,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,13 +1134,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1372235</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>589280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1180,7 +1158,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10382250" y="43399075"/>
+          <a:off x="10382250" y="40249475"/>
           <a:ext cx="6229985" cy="4548505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1480,12 +1458,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.875" defaultRowHeight="62" customHeight="1" outlineLevelCol="1"/>
@@ -1503,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:2">
+    <row r="2" ht="108" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1511,7 +1489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="108" customHeight="1" spans="1:2">
+    <row r="3" ht="93" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1519,7 +1497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="93" customHeight="1" spans="1:2">
+    <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1545,125 +1523,125 @@
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="84" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="101" customHeight="1" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="15" ht="84" customHeight="1" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" ht="207" customHeight="1" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="19" ht="180" customHeight="1" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="20" ht="99" customHeight="1" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="20" ht="101" customHeight="1" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" ht="207" customHeight="1" spans="1:2">
+    <row r="22" ht="266" customHeight="1" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1671,17 +1649,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" ht="180" customHeight="1" spans="1:2">
+    <row r="23" customHeight="1" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" ht="99" customHeight="1" spans="1:2">
+    <row r="24" ht="112" customHeight="1" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>32</v>
@@ -1695,12 +1673,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" ht="266" customHeight="1" spans="1:2">
+    <row r="26" customHeight="1" spans="1:2">
       <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
@@ -1708,135 +1686,135 @@
         <v>29</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" ht="112" customHeight="1" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="29" ht="117" customHeight="1" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" ht="93" customHeight="1" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" ht="117" customHeight="1" spans="1:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" ht="93" customHeight="1" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" ht="74" customHeight="1" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" ht="250" customHeight="1" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" ht="159" customHeight="1" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" ht="74" customHeight="1" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="3" t="s">
+    <row r="43" ht="64" customHeight="1" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
@@ -1844,115 +1822,83 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" ht="309" customHeight="1" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" ht="250" customHeight="1" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="3" t="s">
+    <row r="47" ht="282" customHeight="1" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" ht="159" customHeight="1" spans="1:2">
-      <c r="A46" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="3" t="s">
+    <row r="48" ht="83" customHeight="1" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="47" ht="64" customHeight="1" spans="1:2">
-      <c r="A47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:2">
-      <c r="A48" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" ht="294" customHeight="1" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" ht="117" customHeight="1" spans="1:2">
+      <c r="A51" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="50" ht="309" customHeight="1" spans="1:2">
-      <c r="A50" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" ht="282" customHeight="1" spans="1:2">
-      <c r="A51" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B51" s="3" t="s">
+    <row r="52" ht="304" customHeight="1" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="52" ht="83" customHeight="1" spans="1:2">
-      <c r="A52" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" s="3" t="s">
+    <row r="53" ht="232" customHeight="1" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:2">
-      <c r="A53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" ht="294" customHeight="1" spans="1:2">
-      <c r="A54" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" ht="117" customHeight="1" spans="1:2">
-      <c r="A55" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" ht="304" customHeight="1" spans="1:2">
-      <c r="A56" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" ht="232" customHeight="1" spans="1:2">
-      <c r="A57" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B57">
+  <autoFilter ref="A1:B53">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
